--- a/simulation_data/one_step_algorithm/1s_error_level_13_percent_water_60.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_13_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.46102340004029</v>
+        <v>90.02940273348338</v>
       </c>
       <c r="D2" t="n">
-        <v>3.277755200530805</v>
+        <v>2.857535363865218</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.08542079817342</v>
+        <v>88.89547118671646</v>
       </c>
       <c r="D3" t="n">
-        <v>3.137879765093979</v>
+        <v>3.223475722624495</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.76013586966852</v>
+        <v>87.92312697023455</v>
       </c>
       <c r="D4" t="n">
-        <v>2.925321013751757</v>
+        <v>3.188059086275198</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.81997891554519</v>
+        <v>86.95752912259228</v>
       </c>
       <c r="D5" t="n">
-        <v>3.405155480475355</v>
+        <v>3.114242525397421</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.49507752126264</v>
+        <v>86.23345768997609</v>
       </c>
       <c r="D6" t="n">
-        <v>3.373252365452986</v>
+        <v>3.080299811889335</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.170230042055</v>
+        <v>84.89626483569864</v>
       </c>
       <c r="D7" t="n">
-        <v>3.515680412978875</v>
+        <v>3.245256911448401</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.86635606993659</v>
+        <v>83.46039474459873</v>
       </c>
       <c r="D8" t="n">
-        <v>3.304837138381879</v>
+        <v>2.80000706921678</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.24823667190115</v>
+        <v>82.79763547229076</v>
       </c>
       <c r="D9" t="n">
-        <v>3.076347784416245</v>
+        <v>3.319659254563139</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.65550874540257</v>
+        <v>81.8886909775551</v>
       </c>
       <c r="D10" t="n">
-        <v>3.484386818221389</v>
+        <v>3.223970717117729</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.22575786774001</v>
+        <v>81.43603468315835</v>
       </c>
       <c r="D11" t="n">
-        <v>3.477580525609672</v>
+        <v>3.421331451316447</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.32515607576156</v>
+        <v>79.92756236310953</v>
       </c>
       <c r="D12" t="n">
-        <v>3.366049842358027</v>
+        <v>3.374008336293617</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.21672474356679</v>
+        <v>78.91683775789564</v>
       </c>
       <c r="D13" t="n">
-        <v>3.450160682703268</v>
+        <v>3.034698788973845</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.58202052007991</v>
+        <v>77.74973082539438</v>
       </c>
       <c r="D14" t="n">
-        <v>3.328707418500799</v>
+        <v>3.521485135265003</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.81392252190288</v>
+        <v>76.55310582265862</v>
       </c>
       <c r="D15" t="n">
-        <v>3.287904092876606</v>
+        <v>3.544984184094459</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.97715418232295</v>
+        <v>75.82083609810023</v>
       </c>
       <c r="D16" t="n">
-        <v>3.582216803395778</v>
+        <v>3.533925197787135</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.09467953639067</v>
+        <v>75.37087572043572</v>
       </c>
       <c r="D17" t="n">
-        <v>3.838642870041413</v>
+        <v>3.040925723414435</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.45798668857481</v>
+        <v>74.29476238370488</v>
       </c>
       <c r="D18" t="n">
-        <v>3.537997959505404</v>
+        <v>3.434175096930177</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.86235565005948</v>
+        <v>73.07503786354592</v>
       </c>
       <c r="D19" t="n">
-        <v>3.687546213659467</v>
+        <v>3.449308099429523</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.9732323256197</v>
+        <v>72.47834950806138</v>
       </c>
       <c r="D20" t="n">
-        <v>3.829566994457378</v>
+        <v>3.55254794864482</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.71946706233622</v>
+        <v>69.97451071846713</v>
       </c>
       <c r="D21" t="n">
-        <v>3.544337141698623</v>
+        <v>3.679239802002191</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.06186251325693</v>
+        <v>69.47076895117192</v>
       </c>
       <c r="D22" t="n">
-        <v>3.625782168951922</v>
+        <v>3.250552180037833</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.87831809825961</v>
+        <v>69.09756070870567</v>
       </c>
       <c r="D23" t="n">
-        <v>3.601331423752986</v>
+        <v>3.248446740473252</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.53358523124324</v>
+        <v>68.60922033605709</v>
       </c>
       <c r="D24" t="n">
-        <v>3.671807052106132</v>
+        <v>3.838874485390332</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.77513828885554</v>
+        <v>67.01160229015271</v>
       </c>
       <c r="D25" t="n">
-        <v>3.610184482140033</v>
+        <v>3.3877446274952</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.0737621760688</v>
+        <v>66.02845032593859</v>
       </c>
       <c r="D26" t="n">
-        <v>3.510699658215785</v>
+        <v>3.929908820083773</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.24346162234866</v>
+        <v>65.01445869461988</v>
       </c>
       <c r="D27" t="n">
-        <v>3.627186515791824</v>
+        <v>3.52864340647022</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.77247466542788</v>
+        <v>63.93962430219701</v>
       </c>
       <c r="D28" t="n">
-        <v>3.433108494546941</v>
+        <v>3.561784530857139</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.73856185276369</v>
+        <v>63.11357015294289</v>
       </c>
       <c r="D29" t="n">
-        <v>3.696038614090413</v>
+        <v>4.052159861915265</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.75254432453922</v>
+        <v>61.57292810983723</v>
       </c>
       <c r="D30" t="n">
-        <v>4.153482092056961</v>
+        <v>3.615861086214797</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.84430410743003</v>
+        <v>60.55692434323522</v>
       </c>
       <c r="D31" t="n">
-        <v>4.476271446054425</v>
+        <v>3.861083190403754</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.09861066765419</v>
+        <v>59.42800688382727</v>
       </c>
       <c r="D32" t="n">
-        <v>4.089092132455269</v>
+        <v>4.229049594338907</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.18964932099678</v>
+        <v>58.88721433580788</v>
       </c>
       <c r="D33" t="n">
-        <v>3.680311987043349</v>
+        <v>3.874275302849975</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.33255941325211</v>
+        <v>57.85896879901273</v>
       </c>
       <c r="D34" t="n">
-        <v>3.848354968004444</v>
+        <v>3.910158113763835</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.66841741149302</v>
+        <v>56.85044078105953</v>
       </c>
       <c r="D35" t="n">
-        <v>4.394946298621964</v>
+        <v>3.412842215439274</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.30578509566121</v>
+        <v>55.53312029643949</v>
       </c>
       <c r="D36" t="n">
-        <v>4.274442094354156</v>
+        <v>3.900528506493474</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.30289507917222</v>
+        <v>55.38279029658264</v>
       </c>
       <c r="D37" t="n">
-        <v>3.72066645705793</v>
+        <v>3.904411690183851</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.30977184853613</v>
+        <v>53.7904330234828</v>
       </c>
       <c r="D38" t="n">
-        <v>4.126678184445979</v>
+        <v>3.605293787970949</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.91286574405891</v>
+        <v>52.80840092265339</v>
       </c>
       <c r="D39" t="n">
-        <v>4.022118176025973</v>
+        <v>4.206125796081427</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.07345199806286</v>
+        <v>52.08652343214473</v>
       </c>
       <c r="D40" t="n">
-        <v>4.114585185959487</v>
+        <v>4.178566065387476</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.35889335925712</v>
+        <v>51.17784858685084</v>
       </c>
       <c r="D41" t="n">
-        <v>4.128896269064208</v>
+        <v>3.743066247598748</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.56260002897046</v>
+        <v>49.63882139682086</v>
       </c>
       <c r="D42" t="n">
-        <v>4.156035516133389</v>
+        <v>3.980307365071074</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.85086915004629</v>
+        <v>49.57518358903268</v>
       </c>
       <c r="D43" t="n">
-        <v>3.964549293003236</v>
+        <v>3.956801850817992</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.72378799073118</v>
+        <v>47.16949617511761</v>
       </c>
       <c r="D44" t="n">
-        <v>3.952807431956487</v>
+        <v>4.058979988032544</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.43858354657645</v>
+        <v>46.92986072797485</v>
       </c>
       <c r="D45" t="n">
-        <v>4.110120916654671</v>
+        <v>4.197291680949071</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.28297436422788</v>
+        <v>46.04726075138241</v>
       </c>
       <c r="D46" t="n">
-        <v>4.133791517695009</v>
+        <v>4.136304758280171</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.80934089159313</v>
+        <v>45.11909788374685</v>
       </c>
       <c r="D47" t="n">
-        <v>4.823259745549724</v>
+        <v>3.753442254805632</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.52276168147579</v>
+        <v>43.2628232968057</v>
       </c>
       <c r="D48" t="n">
-        <v>3.899317353942908</v>
+        <v>4.368415314235725</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.57336920595262</v>
+        <v>43.4098519050045</v>
       </c>
       <c r="D49" t="n">
-        <v>3.995994389792236</v>
+        <v>4.410900443451142</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.75811823230691</v>
+        <v>41.25541186408584</v>
       </c>
       <c r="D50" t="n">
-        <v>3.929949665120368</v>
+        <v>4.5914074356796</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.71461524672117</v>
+        <v>40.78252636499335</v>
       </c>
       <c r="D51" t="n">
-        <v>4.462965344146425</v>
+        <v>4.196443586410705</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.77504662854471</v>
+        <v>39.29537630977899</v>
       </c>
       <c r="D52" t="n">
-        <v>4.952485407753716</v>
+        <v>4.469377331237385</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.94342451728784</v>
+        <v>38.78660512833547</v>
       </c>
       <c r="D53" t="n">
-        <v>4.60696252823661</v>
+        <v>4.444893390710178</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.93046658241155</v>
+        <v>37.21604793346874</v>
       </c>
       <c r="D54" t="n">
-        <v>4.278309994518104</v>
+        <v>4.377705657958186</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.91171476511576</v>
+        <v>36.74906943030203</v>
       </c>
       <c r="D55" t="n">
-        <v>4.101033926608683</v>
+        <v>3.772669029672777</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.74808696235872</v>
+        <v>34.9756223663122</v>
       </c>
       <c r="D56" t="n">
-        <v>4.542725882053312</v>
+        <v>4.323768202645997</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.27768666718248</v>
+        <v>34.88478733157061</v>
       </c>
       <c r="D57" t="n">
-        <v>4.298264703184343</v>
+        <v>3.676672586811235</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.22070675032986</v>
+        <v>33.88311178181299</v>
       </c>
       <c r="D58" t="n">
-        <v>4.347028313383051</v>
+        <v>4.337011286194328</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.05564848913102</v>
+        <v>33.04970092670761</v>
       </c>
       <c r="D59" t="n">
-        <v>4.07977371854637</v>
+        <v>4.637116280378266</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.1965067767186</v>
+        <v>31.21598989346215</v>
       </c>
       <c r="D60" t="n">
-        <v>4.922290373630803</v>
+        <v>4.527501461774546</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.38955795215622</v>
+        <v>30.97226438311973</v>
       </c>
       <c r="D61" t="n">
-        <v>4.387708929773801</v>
+        <v>4.346179682571367</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.91598119855734</v>
+        <v>29.26267152031893</v>
       </c>
       <c r="D62" t="n">
-        <v>4.217216930053544</v>
+        <v>4.256018546714945</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.0954797431784</v>
+        <v>28.03525468043495</v>
       </c>
       <c r="D63" t="n">
-        <v>3.82284358155581</v>
+        <v>4.779060139290508</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>29.07357370773982</v>
+        <v>28.3933445524527</v>
       </c>
       <c r="D64" t="n">
-        <v>4.222244781841879</v>
+        <v>4.38553093951922</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.3903979677174</v>
+        <v>27.23678397234198</v>
       </c>
       <c r="D65" t="n">
-        <v>4.32699037017769</v>
+        <v>4.100399017315626</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.27618975206243</v>
+        <v>25.82530598249394</v>
       </c>
       <c r="D66" t="n">
-        <v>4.837363863957496</v>
+        <v>4.564612257571</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.51727510976964</v>
+        <v>25.16342336552716</v>
       </c>
       <c r="D67" t="n">
-        <v>4.606555595807269</v>
+        <v>4.498102983331256</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.34328456612207</v>
+        <v>23.8387453696464</v>
       </c>
       <c r="D68" t="n">
-        <v>4.917436325929208</v>
+        <v>5.126040369136335</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.94245313927283</v>
+        <v>22.6692792240315</v>
       </c>
       <c r="D69" t="n">
-        <v>5.127381465354135</v>
+        <v>5.117199868807873</v>
       </c>
     </row>
   </sheetData>
